--- a/region2017/reports/documents/layers_table_formatted.xlsx
+++ b/region2017/reports/documents/layers_table_formatted.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33760" yWindow="-1880" windowWidth="25760" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="-35360" yWindow="-1880" windowWidth="25760" windowHeight="13740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="references" localSheetId="2">Sheet2!$B$110</definedName>
+  </definedNames>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="299">
   <si>
     <t>Layer</t>
   </si>
@@ -65,12 +71,6 @@
     <t>Ocean acidification pressure scaled using biological thresholds.</t>
   </si>
   <si>
-    <t>PRESSURE</t>
-  </si>
-  <si>
-    <t>Halpern et al. (2012)</t>
-  </si>
-  <si>
     <t>sea level rise</t>
   </si>
   <si>
@@ -119,18 +119,12 @@
     <t>The number of potential Community Based Subsistence Fishing Areas (CBSFA) and interested communities, and the active fishponds, scaled to maximum number per county.</t>
   </si>
   <si>
-    <t>RESILIENCE</t>
-  </si>
-  <si>
     <t>reef condition</t>
   </si>
   <si>
     <t>The benthic condition of coral reefs assessed through a combination of variables including percent coral cover, percent macroalgae cover, demography, and mortality.</t>
   </si>
   <si>
-    <t>BD, CP</t>
-  </si>
-  <si>
     <t>coastal protection coastal wetland extent</t>
   </si>
   <si>
@@ -146,9 +140,6 @@
     <t>This is a list of habitats in each region weighted by proportion of the total area for each habitat.</t>
   </si>
   <si>
-    <t>BD</t>
-  </si>
-  <si>
     <t>commerical coastal pelagic fisheries catch</t>
   </si>
   <si>
@@ -191,27 +182,18 @@
     <t>Bottomfish stock assessment.</t>
   </si>
   <si>
-    <t>Brodziak (2014)</t>
-  </si>
-  <si>
     <t>sustainability of pelagic fishery</t>
   </si>
   <si>
     <t>Pelagic (tuna and swordfish) stock assessments.</t>
   </si>
   <si>
-    <t>WCPFC (n.d.)</t>
-  </si>
-  <si>
     <t>sustainability of reef fishery</t>
   </si>
   <si>
     <t>Reef fish stock assessment.</t>
   </si>
   <si>
-    <t>Nadon (n.d.)</t>
-  </si>
-  <si>
     <t>forest/watershed health</t>
   </si>
   <si>
@@ -224,9 +206,6 @@
     <t>The ratio of catch to bycatch for the tuna fishery (deep set longlines).</t>
   </si>
   <si>
-    <t>National Marine Fisheries Service (2013)</t>
-  </si>
-  <si>
     <t>commercial fishery lo-bycatcb</t>
   </si>
   <si>
@@ -239,12 +218,6 @@
     <t>The pressure on the nearshore from aquarium fishing estimated as the reported take to DAR.</t>
   </si>
   <si>
-    <t>management and protection of habitat to preserve biodiversity (fisheries)</t>
-  </si>
-  <si>
-    <t>The survey responses by country to the Convention on Biologicial Diversity (CBD) Third National Report: habitat related questions.</t>
-  </si>
-  <si>
     <t>commercial fishing management</t>
   </si>
   <si>
@@ -272,12 +245,6 @@
     <t>The ratio of management areas (BRFA, Longline, Monument) to the total ocean area with the EEZ and divided into OHI regions.</t>
   </si>
   <si>
-    <t>EEZ protected marine areas to protect fishery resources</t>
-  </si>
-  <si>
-    <t>The protected marine areas within the EEZ to protect fishery resources.</t>
-  </si>
-  <si>
     <t>reef fishing catch</t>
   </si>
   <si>
@@ -290,12 +257,6 @@
     <t>The Convention on International Trade in Endangered Species of Wild Fauna and Flora (CITES) signatories.</t>
   </si>
   <si>
-    <t>inflation adjusted usd</t>
-  </si>
-  <si>
-    <t>The inflation adjusted usd.</t>
-  </si>
-  <si>
     <t>LE</t>
   </si>
   <si>
@@ -410,12 +371,6 @@
     <t>EEZ MPAs habitat resilience</t>
   </si>
   <si>
-    <t>protected marine areas within EEZ to protect against habitat destruction</t>
-  </si>
-  <si>
-    <t>Protected marine areas within EEZ to protect against habitat destruction.</t>
-  </si>
-  <si>
     <t>ship-based groundings</t>
   </si>
   <si>
@@ -479,12 +434,6 @@
     <t>The State New Economy Index uses 25 indicators to measure the extent to which state economies are knowledge-based, globalized, entrepreneurial, IT-driven, and innovation-oriented.</t>
   </si>
   <si>
-    <t>competitiveness in achieving sustained economic prosperity</t>
-  </si>
-  <si>
-    <t>The Global Competitiveness Index (GCI) scores from the World Economic Forum.</t>
-  </si>
-  <si>
     <t>sector evenness as a measure of economic diversity</t>
   </si>
   <si>
@@ -497,21 +446,12 @@
     <t>The coastal area within 1 km of the shore.</t>
   </si>
   <si>
-    <t>SP</t>
-  </si>
-  <si>
     <t>offshore area to 3nm</t>
   </si>
   <si>
     <t>The offshore area to 3nm.</t>
   </si>
   <si>
-    <t>state conservation districts</t>
-  </si>
-  <si>
-    <t>The area and type of conservation districts within 1km of the coastline.</t>
-  </si>
-  <si>
     <t>coastal conservation districts</t>
   </si>
   <si>
@@ -659,9 +599,6 @@
     <t>The list of Hawaii coastal plant species and status of coastal sand-dune plants scored based on ESA status.</t>
   </si>
   <si>
-    <t>Merlin (1999); us_fish_&amp;_wildlife_service_ecos:_nodate</t>
-  </si>
-  <si>
     <t>ESA marine mammal status</t>
   </si>
   <si>
@@ -674,9 +611,6 @@
     <t>The list of seabirds and coastal birds scored based on ESA status and State of the Birds watch lists.</t>
   </si>
   <si>
-    <t>Rosenberg et al. (2010)</t>
-  </si>
-  <si>
     <t>weakness of social progress</t>
   </si>
   <si>
@@ -689,12 +623,6 @@
     <t>The Inverse of World Governance Indicators (WGI) calculated as the six combined scores.</t>
   </si>
   <si>
-    <t>average visitors per day</t>
-  </si>
-  <si>
-    <t>The average number of visitor days by county.</t>
-  </si>
-  <si>
     <t>TR</t>
   </si>
   <si>
@@ -713,18 +641,12 @@
     <t>Visitor generated GDP with a target set by the Hawaii Tourism Authority of 2.5% annual growth.</t>
   </si>
   <si>
-    <t>HTA (2016)</t>
-  </si>
-  <si>
     <t>resident sentiment</t>
   </si>
   <si>
     <t>The Hawaii Tourism Authority's survey on resident sentiment to tourism.</t>
   </si>
   <si>
-    <t>HTA (2017)</t>
-  </si>
-  <si>
     <t>experience of visitors</t>
   </si>
   <si>
@@ -737,27 +659,15 @@
     <t>The ratio of watershed partnerships to historic native forest extent.</t>
   </si>
   <si>
-    <t>cp wetlands</t>
-  </si>
-  <si>
-    <t>Wetlands layer clipped to 1km inland from coast. Included only wetlands that are in shallow water and coastal for use in the coastal protection goal</t>
-  </si>
-  <si>
     <t>strength of governance</t>
   </si>
   <si>
     <t>The World Governance Indicators (WGI) six combined scores.</t>
   </si>
   <si>
-    <t>multipliers</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>DBEDT (2013)</t>
-  </si>
-  <si>
     <t>visitors participating in whale watching</t>
   </si>
   <si>
@@ -794,17 +704,302 @@
     <t>visitors participating in thrill craft</t>
   </si>
   <si>
-    <t>Edwards (2014)</t>
-  </si>
-  <si>
-    <t>Ocean Tipping Points</t>
+    <t>Targets</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>Halpern et al. (2008)</t>
+  </si>
+  <si>
+    <t>NOAA: National Centers for Environmental Information (n.d.)</t>
+  </si>
+  <si>
+    <t>Benaka, LR, Rilling, C, Seney, E, Winarsoo (2013)</t>
+  </si>
+  <si>
+    <t>pressure resilience</t>
+  </si>
+  <si>
+    <t>resilience</t>
+  </si>
+  <si>
+    <t>spatial</t>
+  </si>
+  <si>
+    <t>OTP (n.d.)</t>
+  </si>
+  <si>
+    <t>Williams et al. (2015); Williams (2017)</t>
+  </si>
+  <si>
+    <t>CON</t>
+  </si>
+  <si>
+    <t>Gorstein et al. (2018)</t>
+  </si>
+  <si>
+    <t>NOAA (n.d.)</t>
+  </si>
+  <si>
+    <t>FIS</t>
+  </si>
+  <si>
+    <t>McCoy et al. (2018)</t>
+  </si>
+  <si>
+    <t>Brodziak, J., A Yau, J. O’Malley, A. Andrews, R. Humphreys, E. DeMartini, M. Pan, M. Parke (2014)</t>
+  </si>
+  <si>
+    <t>WCPFC (n.d.); ISC (2017)</t>
+  </si>
+  <si>
+    <t>Nadon (2017)</t>
+  </si>
+  <si>
+    <t>HAB</t>
+  </si>
+  <si>
+    <t>ocean and coastal sector mean wages</t>
+  </si>
+  <si>
+    <t>The mean wage per ocean sector by county</t>
+  </si>
+  <si>
+    <t>Hawaii average wage</t>
+  </si>
+  <si>
+    <t>The Hawaii average annual wage by county</t>
+  </si>
+  <si>
+    <t>LSP</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>Ogden Environmental Services (1994)</t>
+  </si>
+  <si>
+    <t>The Information Technology and Innovation Foundation (2014)</t>
+  </si>
+  <si>
+    <t>Office of Hawaiian Affairs (n.d.)</t>
+  </si>
+  <si>
+    <t>SPP</t>
+  </si>
+  <si>
+    <t>Merlin (1999); US Fish and Wildlife Service (n.d.)</t>
+  </si>
+  <si>
+    <t>NOAA Fisheries (n.d.); Costa and Kendall (2016)</t>
+  </si>
+  <si>
+    <t>Rosenberg et al. (2010); US Fish and Wildlife Service (n.d.)</t>
+  </si>
+  <si>
+    <t>HTA (n.d.)</t>
+  </si>
+  <si>
+    <t>HTA (2017); HTA (n.d.) evaluation and performance measures</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>Benaka, LR, Rilling, C, Seney, E, Winarsoo, H. 2013. “US national bycatch report first edition update 1.” NOAA National Marine Fisheries Service.</t>
+  </si>
+  <si>
+    <t>Brodziak, J., A Yau, J. O’Malley, A. Andrews, R. Humphreys, E. DeMartini, M. Pan, M. Parke, E. Fletcher. 2014. “Stock assessment update for the main Hawaiian Islands Deep 7 bottomfish complex through 2013 with projected annual catch limits through 2016.”. U.S. Dep. Commer., NOAA Tech. Memo., NOAA-TM-NMFS-PIFSC-42. doi:10.7289/V5T151M8.</t>
+  </si>
+  <si>
+    <t>Costa, Bryan M, and Matheyw S Kendall. 2016. “Marine Biogeographic Assessment of the Main Hawaiian Islands: Synthesized physical and biological data offshore of the Main Hawaiian Islands from 1891-01-01 to 2015-03-01 (NCEI Accession 0155189).” Version 1.1 (OCS Study BOEM 2016-035 and NOAA Technical Memorandum NOS NCCOS 214). Bureau of Ocean Energy Management; National Oceanic; Atmospheric Administration.</t>
+  </si>
+  <si>
+    <t>DBEDT. 2015a. “Data book: Recreation and travel.” Hawaiʻi Department of Agriculture. http://dbedt.hawaii.gov/economic/databook/.</t>
+  </si>
+  <si>
+    <t>———. 2015b. “Data book: Section 1. Population.” Department of Business, Economic Development &amp; Tourism.</t>
+  </si>
+  <si>
+    <t>———. n.d. “Section 12: Labor force, employment, and earnings.” Department of Business, Economic Development &amp; Tourism Research.</t>
+  </si>
+  <si>
+    <t>DLNR DAR. n.d. “Commerical fisheries catch data 2012-2016.” DLNR Division of Aquatic Resources.</t>
+  </si>
+  <si>
+    <t>ENOW. 2017. “Time-Series Data on the Ocean and Great Lakes Economy for Counties, States, and the Nation between 2005 and 2014 (Sector Level).” Charleston, SC: Department of Commerce (DOC), National Oceanic; Atmospheric Administration (NOAA), National Ocean Service (NOS), Office for Coastal Management (OCM). https://coast.noaa.gov/digitalcoast/tools/enow.html.</t>
+  </si>
+  <si>
+    <t>Fletcher, Charles H, Bradley M Romine, Ayesha S Genz, Matthew M Barbee, Matthew Dyer, Tiffany R Anderson, S Chyn Lim, Sean Vitousek, Christopher Bochicchio, and Bruce M Richmond. 2012. “National assessment of shoreline change; historical shoreline change in the Hawaiian Islands.” U.S. Geological Survey Open-File Report 2011-1051, 55 p. http://pubs.usgs.gov/of/2011/1051.</t>
+  </si>
+  <si>
+    <t>Gorstein, M, J Loerzel, A Levine, P Edwards, and M Dillard. 2018. “National Coral Reef Monitoring Program Socioeconomic Monitoring Component: Summary Findings for Hawaiʻi, 2015.” NOAA Technical Memorandum CRCP 30.</t>
+  </si>
+  <si>
+    <t>Hawaiʻi Climate Change Mitigation and Adaptation Commission. n.d. “Hawaiʻi sea level rise vulnerability and adaptation report.” Prepared by Tetra Tech, Inc.; the State of Hawaiʻi Department of Land; Natural Resources, Office of Conservation; Coastal Lands, under the State of Hawaiʻi Department of Land; Natural Resources Contract No: 64064.</t>
+  </si>
+  <si>
+    <t>HTA. 2015. “Visitor satisfaction and activity reports 2011-2015.” Hawaii Tourism Authority.</t>
+  </si>
+  <si>
+    <t>———. 2017. “Survey of residents sentiment on tourism.” Hawaii Tourism Authority. http://www.hawaiitourismauthority.org/research/reports/annual-visitor-research/.</t>
+  </si>
+  <si>
+    <t>———. n.d. “Annual Visitor Research Report.” Hawaii Tourism Authority.</t>
+  </si>
+  <si>
+    <t>ISC. 2017. “International Scientific Committee for Tuna and Tuna-like Species in the North Pacific Ocean.” http://isc.fra.go.jp.</t>
+  </si>
+  <si>
+    <t>Lecky, Joseph H. 2016. “Ecosystem Vulnerability and Mapping Cumulative Impacts on Hawaiian Reefs.” PhD thesis, University of Hawaii, Manoa. doi:10.13140/RG.2.2.33194.52162.</t>
+  </si>
+  <si>
+    <t>McCoy, Kaylyn, Adel Heenan, Jake Asher, Paula Ayotte, Kelvin Gorospe, Andrew E. Gray, Kevin C. Lino, Jill P Zamzow, and I Williams. 2017. “Pacific Reef Assessment and Monitoring Program Data Report: Ecological monitoring 2016-reef fishes and benthic habitats of the main Hawaiian Islands, Northwestern Hawaiian Islands, Pacific Remote Island Areas, and America Samoa.” January 2017. NOAA Pacific Islands Fisheries Science Center.</t>
+  </si>
+  <si>
+    <t>Nadon, Marc O. 2017. “Stock assessment of the coral reef fishes of Hawaii, 2016.” U.S. Dep. Commer., NOAA Tech. Memo., NOAA-TM-NMFS-PIFSC-60. doi:doi:10.7289/V5/TM-PIFSC-60.</t>
+  </si>
+  <si>
+    <t>NOAA. n.d. “C-CAP Land Cover Atlas.” NOAA Office for Coastal Management. https://coast.noaa.gov/ccapatlas/.</t>
+  </si>
+  <si>
+    <t>———. n.d. “Hawaii ESI: HYDRO (Hydrology Polygons and Lines).” National Oceanic; Atmospheric Administration (NOAA), National Ocean Service, Office of Response; Restoration, Hazardous Materials Response Division, Seattle, Washington.</t>
+  </si>
+  <si>
+    <t>NOAA Fisheries. n.d. “Species Directory.” https://www.fisheries.noaa.gov/species-directory.</t>
+  </si>
+  <si>
+    <t>NOAA Satelite and Information Service. n.d. “Coral Reef Watch.” National Atmsospheric; Oceanic Administration Satelite; Information Service. https://coralreefwatch.noaa.gov/satellite/bleaching5km/index{\_}5km{\_}dhw.php.</t>
+  </si>
+  <si>
+    <t>NOAA: National Centers for Environmental Information. n.d. “Extended reconstructed sea surface temperature (ERSST) v4.” https://www.ncdc.noaa.gov/data-access/marineocean-data/extended-reconstructed-sea-surface-temperature-ersst-v4.</t>
+  </si>
+  <si>
+    <t>Office of Hawaiian Affairs. n.d. “Moʻomeheu: Culture -Value History &amp; Culture.” Office of Hawaiian Affairs. https://dashboard.hawaii.gov/oha.</t>
+  </si>
+  <si>
+    <t>Office of Planning. n.d. “Hawaii Statewide GIS Program: Marine managed areas (MMAs) in the Main Hawaiian Islands as of June, 2016.” http://geoportal.hawaii.gov/datasets/marine-managed-areas-dar?geometry=-165.4{\%}2C19.079{\%}2C-149.745{\%}2C22.671.</t>
+  </si>
+  <si>
+    <t>Ogden Environmental Services. 1994. “Final Report: Comprehensive Management of Coastal Resources, Phase1.” Ogden Environmental Services. Report for the Coastal Zone Management Program, Office of Planning, June 1994.</t>
+  </si>
+  <si>
+    <t>OTP. n.d. “PACIOOS: Ocean Tipping Points:Hawaiʻi case study.”</t>
+  </si>
+  <si>
+    <t>Rosenberg, K.V., D. Pashley, B. Andres, J. Blancher, G.S. Butcher, W.C. Hunter, D. Mehlman, et al. 2010. “The State of the Birds 2014 Watch List,” 3–7. http://www.stateofthebirds.org/2014/watch-list.</t>
+  </si>
+  <si>
+    <t>The Information Technology and Innovation Foundation. 2014. “The 2014 State New Economy Index.” The Information Technology &amp; Innovation Foundation. http://www2.itif.org/2014-state-new-economy-index.pdf?{\_}ga=2.172874404.647272182.1518556757-1876347143.1503367721.</t>
+  </si>
+  <si>
+    <t>US DOA. 2015. “Hawaiʻi: Aquaculture Annual Release.” US Department of Agriculture.</t>
+  </si>
+  <si>
+    <t>US Fish and Wildlife Service. n.d. “ECOS: Environmental conservation online system.” https://ecos.fws.gov/ecp/.</t>
+  </si>
+  <si>
+    <t>USDA. n.d. “National agriculture statistics service: Quick stats.” US Department of Agriculture. https://quickstats.nass.usda.gov/.</t>
+  </si>
+  <si>
+    <t>Van Rees, Charles B., and J. Michael Reed. 2014. “Wetland loss in hawai’i since human settlement.” Wetlands 34 (2): 335–50. doi:10.1007/s13157-013-0501-2.</t>
+  </si>
+  <si>
+    <t>WCPFC. n.d. “Western &amp; Central Pacific Fisheries Commission.” https://www.wcpfc.int/.</t>
+  </si>
+  <si>
+    <t>Williams, I. 2017. “Indicators for nearshore fish status.” NOAA Coral Reef Ecosystem Program, personal communication.</t>
+  </si>
+  <si>
+    <t>Williams, Ivor D., Julia K. Baum, Adel Heenan, Katharine M. Hanson, Marc O. Nadon, and Russell E. Brainard. 2015. “Human, oceanographic and habitat drivers of central and western pacific coral reef fish assemblages.” PLoS ONE 10 (4): 1–19. doi:10.1371/journal.pone.0120516.</t>
+  </si>
+  <si>
+    <t>Yuen, Emma. 2017. “Percent of priority watersheds fenced per county.” DLNR Division of Forestry; Wildlife, personal communication.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Halpern, Benjamin S, Karen L McLeod, Andrew A Rosenberg, and Larry B Crowder. 2008. “Managing for cumulative impacts in ecosystem-based management through ocean zoning.” </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ocean &amp; Coastal Management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 51 (3). Elsevier: 203–11.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">McCoy, Kaylyn S, Ivor D. Williams, Alan M. Friedlander, Ma Hongguang, Lida T Teneva, and John N. Kittinger. 2018. “Estimating nearshore coral reef-associated fisheries production from the main Hawaiian Islands using commercial and non-commercial data.” </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PloS One</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Merlin, M. 1999. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hawaiian coastal plants</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>coastal wetland extent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -846,6 +1041,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -855,7 +1064,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -872,8 +1081,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -893,8 +1111,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -902,14 +1121,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="20">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -928,6 +1181,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -935,6 +1189,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1202,19 +1459,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection sqref="A1:D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1242,10 +1499,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1256,1459 +1513,6813 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>208</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>210</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>213</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>214</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>205</v>
+        <v>298</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="112" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>241</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>241</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>241</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>236</v>
+        <v>96</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>298</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>173</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D29" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>58</v>
+        <v>242</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>59</v>
+        <v>243</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>240</v>
+        <v>126</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>241</v>
+        <v>127</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>89</v>
+        <v>246</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="D42" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>78</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>156</v>
+        <v>247</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>156</v>
+        <v>247</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>156</v>
+        <v>247</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>156</v>
+        <v>247</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>255</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>220</v>
+        <v>59</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>224</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>225</v>
+        <v>56</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>229</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>177</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>181</v>
+        <v>10</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="112" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>256</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="74" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>129</v>
+        <v>218</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>256</v>
+        <v>217</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>245</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D82" s="2"/>
     </row>
     <row r="83" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>243</v>
+        <v>63</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>244</v>
+        <v>64</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>218</v>
+        <v>72</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>13</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>216</v>
+        <v>65</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>217</v>
+        <v>66</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>28</v>
+        <v>204</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A103" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A104" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D104" s="16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A105" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C105" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C99" s="2" t="s">
+      <c r="D105" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A106" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D106" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A107" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B100" s="2" t="s">
+      <c r="B107" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D107" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A108" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C108" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B101" s="2" t="s">
+      <c r="D108" s="16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A109" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C109" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D101" s="2"/>
-    </row>
-    <row r="102" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D106" s="2"/>
-    </row>
-    <row r="107" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>135</v>
+      <c r="D109" s="16" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:E109">
+  <sortState ref="A2:D109">
+    <sortCondition ref="A2:A109"/>
     <sortCondition ref="B2:B109"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E0BDCE-50C9-3446-93DE-4B94094FAC7F}">
+  <dimension ref="A1:D109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="320" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="336" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="320" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="352" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="336" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="288" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="304" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="368" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE732F3-32CC-FE45-BA0C-19D1FEA78BB8}">
+  <dimension ref="A1:D150"/>
+  <sheetViews>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection sqref="A1:D109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="20" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="336" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="336" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" ht="320" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="320" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="352" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="288" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="304" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="368" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B110" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B111" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B112" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B113" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B114" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B115" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B116" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B117" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B118" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B119" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B120" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B121" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B122" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B123" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B124" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B125" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B126" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B127" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B128" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B129" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B130" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B131" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B132" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B133" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B134" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B135" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B136" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B137" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B138" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B139" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B140" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B141" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B142" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B143" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B144" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B145" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B146" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B147" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B148" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B149" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B150" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/cc_acid_gl2016.csv" xr:uid="{773C5AEF-A8AA-1547-82AC-7B5FFE80538A}"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/cc_sst_eez_mhi2017.csv" xr:uid="{CAC456EF-25DD-F04D-9061-963866199440}"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/cc_sst_nearshore_mhi2017.csv" xr:uid="{CFD36DB9-AF04-7F46-BF2B-0BB7075ED592}"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/cc_uv_gl2016.csv" xr:uid="{A52ECE56-E7B0-EF42-B3FA-4827D8DCCFAD}"/>
+    <hyperlink ref="B5" r:id="rId5" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fp_com_hb_mhi2017.csv" xr:uid="{4FB225BA-E6D7-A14B-BC5B-635DBD7AC743}"/>
+    <hyperlink ref="B6" r:id="rId6" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fp_com_lb_mhi2017.csv" xr:uid="{DEEB8EF5-E8ED-CA44-80F3-6E867BD6B47D}"/>
+    <hyperlink ref="B7" r:id="rId7" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hd_intertidal_mhi2017.csv" xr:uid="{349930E1-6213-0343-B80E-B1C8AEC1CA79}"/>
+    <hyperlink ref="B8" r:id="rId8" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/ss_spi_gl2016.csv" xr:uid="{E66CAA5F-D917-7344-845A-1E023036AFFC}"/>
+    <hyperlink ref="B9" r:id="rId9" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/ss_wgi_gl2016.csv" xr:uid="{7C6B4212-5AAE-5540-A8F2-733E0D878428}"/>
+    <hyperlink ref="B10" r:id="rId10" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/NA" xr:uid="{C2C6D0E8-2B4A-6A45-B2C1-956E42C023A4}"/>
+    <hyperlink ref="B11" r:id="rId11" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/element_wts_hab_pres_abs_mhi2017.csv" xr:uid="{FA258C11-7FC4-204F-B1F4-95B37D8F371F}"/>
+    <hyperlink ref="B12" r:id="rId12" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fp_mora_artisanal_gl2016.csv" xr:uid="{4B52295B-6D4D-9F40-ACFA-A9D22575036E}"/>
+    <hyperlink ref="B13" r:id="rId13" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fp_mora_gl2016.csv" xr:uid="{7E3896EA-43FE-3D4F-B126-7384154ED021}"/>
+    <hyperlink ref="B14" r:id="rId14" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/g_cites_gl2016.csv" xr:uid="{DD72A546-8FFE-6041-AA8E-CF507F8558F6}"/>
+    <hyperlink ref="B15" r:id="rId15" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/need to put in local data layer for this" xr:uid="{D72C1C5A-9194-D948-933B-9CE389D6A671}"/>
+    <hyperlink ref="B16" r:id="rId16" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/res_spi_gl2016.csv" xr:uid="{01796462-3B30-8C46-8004-A44241482728}"/>
+    <hyperlink ref="B17" r:id="rId17" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/sp_alien_species_gl2016.csv" xr:uid="{43FC78F0-93EE-E94D-9264-299348CE1EE9}"/>
+    <hyperlink ref="B18" r:id="rId18" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/species_diversity_3nm_gl2016.csv" xr:uid="{83D04CB6-8EA9-AD4C-9A7E-B43FE3B5390E}"/>
+    <hyperlink ref="B19" r:id="rId19" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/NA" xr:uid="{9C129DC2-BB56-7741-B2F4-1096F2F4426F}"/>
+    <hyperlink ref="B20" r:id="rId20" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/watershed_partnerships.csv" xr:uid="{11CAFDF8-1C16-BF47-9F04-F43B7CC19684}"/>
+    <hyperlink ref="B21" r:id="rId21" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/wgi_all_gl2016.csv" xr:uid="{5BA53259-2634-824B-B847-0814987A8C35}"/>
+    <hyperlink ref="B22" r:id="rId22" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/NA" xr:uid="{9859D17B-DFA5-9244-B2CC-5800BB76E21C}"/>
+    <hyperlink ref="B23" r:id="rId23" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/ao_access_mhi2017.csv" xr:uid="{4205DB12-6DFC-494D-B381-493CC03798C4}"/>
+    <hyperlink ref="B24" r:id="rId24" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/ao_resource_mhi2017.csv" xr:uid="{DEC45B70-12E8-5B47-BFAA-C027E83767FD}"/>
+    <hyperlink ref="B25" r:id="rId25" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/r_participation_mhi2017.csv" xr:uid="{CED19147-CE7B-8844-93D9-7D0C9EDD49B6}"/>
+    <hyperlink ref="B26" r:id="rId26" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/NA" xr:uid="{C2F5AA90-892F-FF47-96BC-682CF79BA939}"/>
+    <hyperlink ref="B27" r:id="rId27" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/cp_hab_extent_mhi2017.csv" xr:uid="{5757FA26-A1DF-024D-BBC6-333734F1C3F2}"/>
+    <hyperlink ref="B28" r:id="rId28" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/NA" xr:uid="{E478F5FD-A736-0343-9E87-99D83D4F6CD1}"/>
+    <hyperlink ref="B29" r:id="rId29" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fis_coast_pelagic_updated_mhi2017.csv" xr:uid="{518F7D44-42A9-DA49-8799-C616309E44B7}"/>
+    <hyperlink ref="B30" r:id="rId30" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fis_deep_catch_mhi2017.csv" xr:uid="{5A594C83-253C-9E40-9424-F274D27AED7A}"/>
+    <hyperlink ref="B31" r:id="rId31" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fis_pelagic_catch_mhi2017.csv" xr:uid="{C7E917EB-58FD-544A-BCBE-2C77C9D9963D}"/>
+    <hyperlink ref="B32" r:id="rId32" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fis_reef_catch_mhi2017.csv" xr:uid="{622CD043-8C34-7C47-B96D-E870D93FDAA5}"/>
+    <hyperlink ref="B33" r:id="rId33" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fis_reef_catch_multiplier_mhi2017.csv" xr:uid="{CEC7C55B-F586-D64D-8DF8-549DCF44D9A0}"/>
+    <hyperlink ref="B34" r:id="rId34" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fis_sus_updated_mhi2017.csv" xr:uid="{7F366008-F9DF-104B-AA19-A9A9013023B2}"/>
+    <hyperlink ref="B35" r:id="rId35" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fis_sus_updated_mhi2017.csv" xr:uid="{FAF772CC-8E7F-A142-AA29-DDA1C6F0F446}"/>
+    <hyperlink ref="B36" r:id="rId36" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fis_sus_updated_mhi2017.csv" xr:uid="{129DAB02-EE36-CD48-9D5F-D2D2D4EE708C}"/>
+    <hyperlink ref="B37" r:id="rId37" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/NA" xr:uid="{BF07382B-81F2-DD40-AB5B-C14BE9F0E363}"/>
+    <hyperlink ref="B38" r:id="rId38" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hab_extent_mhi2017.csv" xr:uid="{F6FC7AF1-F935-4945-80D0-6CD26C8D9406}"/>
+    <hyperlink ref="B39" r:id="rId39" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hab_extent_mhi2017.csv" xr:uid="{D75DC89D-8387-8043-92A3-073B6382D7FB}"/>
+    <hyperlink ref="B40" r:id="rId40" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hab_extent_mhi2017.csv" xr:uid="{53DB1974-A711-6B4C-8C46-102F166F1799}"/>
+    <hyperlink ref="B41" r:id="rId41" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hab_extent_mhi2017.csv" xr:uid="{E2E1029C-FEAC-8141-A25D-F29AC4421604}"/>
+    <hyperlink ref="B42" r:id="rId42" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hab_health_mhi2017.csv" xr:uid="{A315CF8C-1D5B-144D-AA9C-CCF353F51477}"/>
+    <hyperlink ref="B43" r:id="rId43" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hab_health_mhi2017.csv" xr:uid="{C7E16114-61A0-474A-B579-B2DA3C0094FF}"/>
+    <hyperlink ref="B44" r:id="rId44" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hab_health_mhi2017.csv" xr:uid="{C529284F-940B-6A42-BF6E-36E604D221C6}"/>
+    <hyperlink ref="B45" r:id="rId45" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hab_trend_mhi2017.csv" xr:uid="{AD6C9B2A-98F9-AD49-83C8-045A886996AD}"/>
+    <hyperlink ref="B46" r:id="rId46" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hab_trend_mhi2017.csv" xr:uid="{DA9E4ED0-00A3-AC4E-9827-91A531D54271}"/>
+    <hyperlink ref="B47" r:id="rId47" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hab_trend_mhi2017.csv" xr:uid="{43096513-9D01-2142-9D98-1F49ECD88A05}"/>
+    <hyperlink ref="B48" r:id="rId48" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hab_trend_mhi2017.csv" xr:uid="{687AEB5D-CE85-4F43-8622-D143BAB403F6}"/>
+    <hyperlink ref="B49" r:id="rId49" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/le_gdp_mhi2017.csv" xr:uid="{ECF90219-187C-D647-A4B4-C52EE78450B1}"/>
+    <hyperlink ref="B50" r:id="rId50" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/le_jobs_mhi2017.csv" xr:uid="{B740B575-1D4B-7849-825F-68BF1FB61495}"/>
+    <hyperlink ref="B51" r:id="rId51" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/le_pop_mhi2017.csv" xr:uid="{BDADCC0C-DFA7-1C4A-A81A-4285A9B00736}"/>
+    <hyperlink ref="B52" r:id="rId52" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/le_unemployment_mhi2017.csv" xr:uid="{7085E2BD-F4AC-7342-B6C7-EC9D1E123F10}"/>
+    <hyperlink ref="B53" r:id="rId53" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/le_wages_mhi2017.csv" xr:uid="{5B9BD6D2-1FFA-5C4C-A6D8-BACD72BC2022}"/>
+    <hyperlink ref="B54" r:id="rId54" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/le_wkforce_mhi2017.csv" xr:uid="{8F41A359-47BD-094A-BABC-E747DB556BBC}"/>
+    <hyperlink ref="B55" r:id="rId55" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/liv_a_wage_mhi2017.csv" xr:uid="{6F29DDCA-4A98-5747-975D-C8B02DBF0460}"/>
+    <hyperlink ref="B56" r:id="rId56" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/lsp_area_1km_coast_mhi2017.csv" xr:uid="{60D0A8C0-515C-C442-8DE8-B7A26B64BA21}"/>
+    <hyperlink ref="B57" r:id="rId57" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/lsp_area_3nm_mhi2017.csv" xr:uid="{5C4EDC04-4DFF-2A42-8B2C-A2541390D926}"/>
+    <hyperlink ref="B58" r:id="rId58" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/lsp_coastal_conservation_mhi2017.csv" xr:uid="{D5181517-C825-BB49-90A4-25B6649C008E}"/>
+    <hyperlink ref="B59" r:id="rId59" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/lsp_mma_mhi2017.csv" xr:uid="{26766390-09BE-874C-AE8D-18B8EF03DC61}"/>
+    <hyperlink ref="B60" r:id="rId60" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/mar_fishpond_current_mhi2017.csv" xr:uid="{3CD1F66F-9B56-454C-95D6-4127EDC64B43}"/>
+    <hyperlink ref="B61" r:id="rId61" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/mar_fishpond_health_mhi2017.csv" xr:uid="{ABA567CF-A347-874B-B6BA-98AED760CE18}"/>
+    <hyperlink ref="B62" r:id="rId62" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/mar_fishpond_numbers_mhi2017.csv" xr:uid="{4A0D59F4-A5BD-4349-991F-5C4102DA2C9E}"/>
+    <hyperlink ref="B63" r:id="rId63" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/mar_harvest_mhi2017.csv" xr:uid="{B05B0755-D14F-304D-96BC-71545C5F3DE7}"/>
+    <hyperlink ref="B64" r:id="rId64" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/mar_operations_census_mhi2017.csv" xr:uid="{081B9215-6CF5-FA4D-BD75-02449C827832}"/>
+    <hyperlink ref="B65" r:id="rId65" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/cc_sealevel_mhi2017.csv" xr:uid="{96713FC3-4571-4C40-B007-CF6A1979557C}"/>
+    <hyperlink ref="B66" r:id="rId66" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/cc_slr_eco_mhi2017.csv" xr:uid="{20ECC339-AA4A-EE49-A38A-D8365ADDD699}"/>
+    <hyperlink ref="B67" r:id="rId67" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/cc_warm_mhi2017.csv" xr:uid="{7B933772-2616-4B4C-BE29-C0CA19D1F7A9}"/>
+    <hyperlink ref="B68" r:id="rId68" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/forest_health_mhi2017.csv" xr:uid="{5AB79AF3-F8F6-1C4A-B729-0DA4DA87CD5E}"/>
+    <hyperlink ref="B69" r:id="rId69" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fp_aquarium_mhi2017.csv" xr:uid="{613BF87B-DDD8-414A-AE74-A2A4BCB1B8C6}"/>
+    <hyperlink ref="B70" r:id="rId70" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fp_reeffish_t_mhi2017.csv" xr:uid="{5575BAC1-81F7-844F-98BF-E5511C9435FF}"/>
+    <hyperlink ref="B71" r:id="rId71" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hd_benstr_mhi2017.csv" xr:uid="{A057B274-C173-7F43-87B3-918F8371A32D}"/>
+    <hyperlink ref="B72" r:id="rId72" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hd_coasteng_mhi2017.csv" xr:uid="{5D305DD0-B5C9-2C4D-BA11-24F97E3F87F6}"/>
+    <hyperlink ref="B73" r:id="rId73" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hd_dredging_mhi2017.csv" xr:uid="{AAC8664D-3FA5-DB45-AFE0-1DC5F722E55E}"/>
+    <hyperlink ref="B74" r:id="rId74" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hd_shipbased_ground_mhi2017.csv" xr:uid="{0EDF723B-2E01-B845-A626-EA1D3AFEE744}"/>
+    <hyperlink ref="B75" r:id="rId75" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hd_tourrec_direct_h_mhi2017.csv" xr:uid="{9AAEB7E1-C5CA-4046-8638-17D081E53911}"/>
+    <hyperlink ref="B76" r:id="rId76" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/po_lbsp_nosds_bil_mhi2017.csv" xr:uid="{5AF17A80-5E57-C648-B03D-F740936BA6C3}"/>
+    <hyperlink ref="B77" r:id="rId77" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/po_lbsp_sed_mhi2017.csv" xr:uid="{D34D0D73-D194-DC4D-923A-8B5A412A0BCE}"/>
+    <hyperlink ref="B78" r:id="rId78" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/po_lbspaggolfrunoff_mhi2017.csv" xr:uid="{BF253BB6-CCCA-9C44-B145-AD5677BA2D9E}"/>
+    <hyperlink ref="B79" r:id="rId79" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/po_lbspurbanrunoff_mhi2017.csv" xr:uid="{6B8B6DBB-8CD2-6D45-8BC5-C6A86195033B}"/>
+    <hyperlink ref="B80" r:id="rId80" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/po_marinedebris_mhi2017.csv" xr:uid="{F6ABB2A0-EC98-434E-8FA0-FDF8033C4CDD}"/>
+    <hyperlink ref="B81" r:id="rId81" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/po_shipbased_shipp_mhi2017.csv" xr:uid="{4FD8E3F7-5D9C-2244-BC88-55C20918A5A2}"/>
+    <hyperlink ref="B82" r:id="rId82" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/sp_aquacul_terrest_mhi2017.csv" xr:uid="{BEF513A5-2DE9-934E-9DBB-07F22C25EDD8}"/>
+    <hyperlink ref="B83" r:id="rId83" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/sp_ispp_a_m_mhi2017.csv" xr:uid="{00FC23FF-D4E9-4040-B7C6-CF853223A58C}"/>
+    <hyperlink ref="B84" r:id="rId84" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/t_boarding_mhi2017.csv" xr:uid="{0EEB46EA-7F9F-2F4D-BCF7-FFE6377BBE43}"/>
+    <hyperlink ref="B85" r:id="rId85" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/t_kayaking_mhi2017.csv" xr:uid="{E21E1D29-CF13-4E4E-9ABA-1A6ABE803E02}"/>
+    <hyperlink ref="B86" r:id="rId86" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/t_snorkel_scuba_mhi2017.csv" xr:uid="{0CA10005-042D-F94A-9C57-B5831DE835B1}"/>
+    <hyperlink ref="B87" r:id="rId87" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/t_swimming_mhi2017.csv" xr:uid="{A9FE7D49-BBC2-A64A-92FF-5763749A3825}"/>
+    <hyperlink ref="B88" r:id="rId88" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/t_thrill_craft_mhi2017.csv" xr:uid="{6E22CE80-0A8E-9B48-BF66-A29CAB7762E5}"/>
+    <hyperlink ref="B89" r:id="rId89" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/t_whale_watching_mhi2017.csv" xr:uid="{9368035A-3865-4E4B-9A06-0CC2F8E01E16}"/>
+    <hyperlink ref="B90" r:id="rId90" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/community_stewardship_mhi2017.csv" xr:uid="{DF0CAD4F-E43D-3B44-AB19-EA9D26574636}"/>
+    <hyperlink ref="B91" r:id="rId91" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fp_MPA_3nm_mhi2017.csv" xr:uid="{FBF049B4-4649-A74A-BF4D-CB569E962E04}"/>
+    <hyperlink ref="B92" r:id="rId92" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fp_MPA_eez_mhi2017.csv" xr:uid="{AF5C5159-D33A-C143-BD92-DA353C32B3DA}"/>
+    <hyperlink ref="B93" r:id="rId93" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hd_MPA_3nm_mhi2017.csv" xr:uid="{363E44A0-E736-A34C-BB1C-501BFDEFDA39}"/>
+    <hyperlink ref="B94" r:id="rId94" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hd_MPA_eez_mhi2017.csv" xr:uid="{7FBF558B-6014-DE43-9664-FED2687B4C89}"/>
+    <hyperlink ref="B95" r:id="rId95" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hd_watersheds_mhi2017.csv" xr:uid="{A9B41A58-6B07-954A-A363-DE48FD2E07A1}"/>
+    <hyperlink ref="B96" r:id="rId96" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/li_economic_index.csv" xr:uid="{B104A3E5-8CBF-154A-99F0-4B25FCCF992B}"/>
+    <hyperlink ref="B97" r:id="rId97" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/res_hab_health_mhi2017.csv" xr:uid="{4CE8055D-AB1F-2940-9FBA-013AEA295169}"/>
+    <hyperlink ref="B98" r:id="rId98" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/sp_OHA_culture.csv" xr:uid="{7AFAC5C7-E2B5-104A-B202-C55E8E9562FC}"/>
+    <hyperlink ref="B99" r:id="rId99" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/tourism_experience_mhi2017.csv" xr:uid="{D8A21883-5883-9149-85D1-4324CF3D022B}"/>
+    <hyperlink ref="B100" r:id="rId100" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/NA" xr:uid="{D8D1755F-CFA1-D140-88AB-725D086195D8}"/>
+    <hyperlink ref="B101" r:id="rId101" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/NA" xr:uid="{B1C32300-2EBF-D04F-96A5-944C0A53F249}"/>
+    <hyperlink ref="B102" r:id="rId102" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/NA" xr:uid="{C4287347-CC05-FB48-B7D5-A20164228E77}"/>
+    <hyperlink ref="B103" r:id="rId103" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/spp_fish_mhi2017.csv" xr:uid="{FB8695BD-F5F9-CC4B-AD41-A4B9B5C14234}"/>
+    <hyperlink ref="B104" r:id="rId104" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/spp_status_mhi_mhi2017.csv" xr:uid="{B037F873-F3AC-DD4F-9BC2-E2882201EC7E}"/>
+    <hyperlink ref="B105" r:id="rId105" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/spp_status_mhi_mhi2017.csv" xr:uid="{7C7D38BC-7B72-0C43-874A-9A681845EFF5}"/>
+    <hyperlink ref="B106" r:id="rId106" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/spp_status_mhi_mhi2017.csv" xr:uid="{37529C72-61A2-0743-80B7-FE0702F2DD56}"/>
+    <hyperlink ref="B107" r:id="rId107" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/t_env_sus_mhi2017.csv" xr:uid="{91B15183-B498-1F4E-B3F0-86AEF6D129A0}"/>
+    <hyperlink ref="B108" r:id="rId108" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/t_growth_mhi2017.csv" xr:uid="{A7300B16-389A-3F4F-B697-DA7804DEC9C5}"/>
+    <hyperlink ref="B109" r:id="rId109" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/t_sentiment_mhi2017.csv" xr:uid="{F062B0E7-7418-5F4E-BA07-C8F8F8FE44F0}"/>
+    <hyperlink ref="B112" r:id="rId110" display="https://doi.org/10.7289/V5T151M8" xr:uid="{AFF07EF6-6A61-5942-9EBE-7453CD9EE80D}"/>
+    <hyperlink ref="B114" r:id="rId111" display="http://dbedt.hawaii.gov/economic/databook/" xr:uid="{84F25147-755E-0849-9838-A0188A8B0A20}"/>
+    <hyperlink ref="B118" r:id="rId112" display="https://coast.noaa.gov/digitalcoast/tools/enow.html" xr:uid="{0588FB88-78F8-7F42-838B-AC28041A8319}"/>
+    <hyperlink ref="B119" r:id="rId113" display="http://pubs.usgs.gov/of/2011/1051" xr:uid="{E7093E43-CFC3-3A40-B4B6-C5D3CCA21860}"/>
+    <hyperlink ref="B124" r:id="rId114" display="http://www.hawaiitourismauthority.org/research/reports/annual-visitor-research/" xr:uid="{4CAC4E3E-F13B-BE46-8855-CBF27CBCC0BD}"/>
+    <hyperlink ref="B126" r:id="rId115" display="http://isc.fra.go.jp/" xr:uid="{D396B395-CC2F-7942-9EBF-7F03E8B33364}"/>
+    <hyperlink ref="B127" r:id="rId116" display="https://doi.org/10.13140/RG.2.2.33194.52162" xr:uid="{AAB91D33-5B4B-6F4F-AABD-1060B9FB3E45}"/>
+    <hyperlink ref="B131" r:id="rId117" display="https://doi.org/doi:10.7289/V5/TM-PIFSC-60" xr:uid="{972A99C8-45D8-6447-9C84-CDC1D4FDA2C6}"/>
+    <hyperlink ref="B132" r:id="rId118" display="https://coast.noaa.gov/ccapatlas/" xr:uid="{0A49FC4F-C740-7847-92EA-830282A7E6C3}"/>
+    <hyperlink ref="B134" r:id="rId119" display="https://www.fisheries.noaa.gov/species-directory" xr:uid="{81A804B0-32F6-F94E-9FA7-1A879631D5B1}"/>
+    <hyperlink ref="B135" r:id="rId120" display="https://coralreefwatch.noaa.gov/satellite/bleaching5km/index%7b/_%7d5km%7b/_%7ddhw.php" xr:uid="{7605E0DE-AB90-F34F-BDC7-DB52E272B9E8}"/>
+    <hyperlink ref="B136" r:id="rId121" display="https://www.ncdc.noaa.gov/data-access/marineocean-data/extended-reconstructed-sea-surface-temperature-ersst-v4" xr:uid="{7E36C2D9-2ED7-5849-A3A5-18615569AFE0}"/>
+    <hyperlink ref="B137" r:id="rId122" display="https://dashboard.hawaii.gov/oha" xr:uid="{8EC21A3C-57A8-4A41-AF71-378D5996CDA0}"/>
+    <hyperlink ref="B138" r:id="rId123" display="http://geoportal.hawaii.gov/datasets/marine-managed-areas-dar?geometry=-165.4%7b\%25%7d2C19.079%7b\%25%7d2C-149.745%7b\%25%7d2C22.671" xr:uid="{8B08C5D4-E018-924A-90F4-CFDEFD2C8E6A}"/>
+    <hyperlink ref="B141" r:id="rId124" display="http://www.stateofthebirds.org/2014/watch-list" xr:uid="{90E379AC-76E4-2A41-9717-2F8C662CD151}"/>
+    <hyperlink ref="B142" r:id="rId125" display="http://www2.itif.org/2014-state-new-economy-index.pdf?%7b\_%7dga=2.172874404.647272182.1518556757-1876347143.1503367721" xr:uid="{D6A8337B-BAC5-0B4A-8986-AB084717BFFA}"/>
+    <hyperlink ref="B144" r:id="rId126" display="https://ecos.fws.gov/ecp/" xr:uid="{B37C64BC-D31E-3C49-81DC-401934F9DB81}"/>
+    <hyperlink ref="B145" r:id="rId127" display="https://quickstats.nass.usda.gov/" xr:uid="{2CCF3D64-0AF5-E244-BB70-92C382497B62}"/>
+    <hyperlink ref="B146" r:id="rId128" display="https://doi.org/10.1007/s13157-013-0501-2" xr:uid="{18C9E90C-51DE-C04A-843A-ADAB346AD807}"/>
+    <hyperlink ref="B147" r:id="rId129" display="https://www.wcpfc.int/" xr:uid="{7D129C48-D011-274F-9CA4-75CFD0636DE8}"/>
+    <hyperlink ref="B149" r:id="rId130" display="https://doi.org/10.1371/journal.pone.0120516" xr:uid="{AC8EC336-500B-134D-8E9F-798172C9A648}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24895D4-7E0E-4B41-B1C0-1F6CEDF6124B}">
+  <dimension ref="A1:D156"/>
+  <sheetViews>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D115"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="10.83203125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="336" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="336" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:4" ht="320" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" s="10"/>
+    </row>
+    <row r="75" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="320" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A83" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="352" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A87" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="A89" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="A93" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A94" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="288" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A99" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A101" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="304" x14ac:dyDescent="0.2">
+      <c r="A102" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="A103" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D103" s="10"/>
+    </row>
+    <row r="104" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A104" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A105" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D106" s="10"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D107" s="10"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D108" s="10"/>
+    </row>
+    <row r="109" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="A109" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="A110" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="A111" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A112" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="368" x14ac:dyDescent="0.2">
+      <c r="A113" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="A114" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A115" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B116" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B117" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B118" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B119" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B120" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B121" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B122" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B123" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B124" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B125" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B126" s="13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B127" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B128" s="13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B129" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B130" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B131" s="13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B132" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B133" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B134" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B135" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B136" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B137" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B138" s="15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B139" s="13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B140" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B141" s="15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B142" s="15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B143" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B144" s="15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B145" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B146" s="13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B147" s="15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B148" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B149" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B150" s="15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B151" s="15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B152" s="15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B153" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B154" s="13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B155" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B156" s="13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/cc_acid_gl2016.csv" xr:uid="{770BE665-4C99-E941-A4E1-2DC25F0D2207}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/cc_sst_eez_mhi2017.csv" xr:uid="{8FBFDBA8-4DD1-EF47-AF01-AC204D5D7E75}"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/cc_sst_nearshore_mhi2017.csv" xr:uid="{F507D942-BBF1-524A-BE27-F587598DCD24}"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/cc_uv_gl2016.csv" xr:uid="{898A3B9E-7134-604A-9DC9-D76E1AA54E2D}"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fp_com_hb_mhi2017.csv" xr:uid="{0D13BA95-4636-2C40-9EE2-05B007BEE1A7}"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fp_com_lb_mhi2017.csv" xr:uid="{F44E7C3B-430B-BE47-A326-3AC6999AD278}"/>
+    <hyperlink ref="B8" r:id="rId7" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hd_intertidal_mhi2017.csv" xr:uid="{C333A338-7F59-DD40-810D-B3175E7C6D1C}"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/ss_spi_gl2016.csv" xr:uid="{8A06100E-9822-E04B-9532-77C9E98FE023}"/>
+    <hyperlink ref="B10" r:id="rId9" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/ss_wgi_gl2016.csv" xr:uid="{A578D23A-CC86-804F-A80E-F2D67100992F}"/>
+    <hyperlink ref="B11" r:id="rId10" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/NA" xr:uid="{F3232F2D-9A41-024F-8B1F-56EADD6BD79A}"/>
+    <hyperlink ref="B12" r:id="rId11" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/element_wts_hab_pres_abs_mhi2017.csv" xr:uid="{09B5F06E-36F8-9A44-9915-7501F9BBC2E4}"/>
+    <hyperlink ref="B13" r:id="rId12" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fp_mora_artisanal_gl2016.csv" xr:uid="{158F1017-0ACA-1B4F-9471-7CE7A184EF17}"/>
+    <hyperlink ref="B14" r:id="rId13" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fp_mora_gl2016.csv" xr:uid="{D4429294-8444-784E-9044-C2C3CBC79712}"/>
+    <hyperlink ref="B15" r:id="rId14" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/g_cites_gl2016.csv" xr:uid="{731332F4-DEA4-024C-9D29-C85E55A1AF52}"/>
+    <hyperlink ref="B16" r:id="rId15" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/need to put in local data layer for this" xr:uid="{8822CB98-A79C-2D4C-A54D-6F7276A150BE}"/>
+    <hyperlink ref="B17" r:id="rId16" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/res_spi_gl2016.csv" xr:uid="{A8796D0E-D8EB-4D46-87BC-32C773C2D01C}"/>
+    <hyperlink ref="B18" r:id="rId17" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/sp_alien_species_gl2016.csv" xr:uid="{DFBF2492-11CA-7E46-BC75-0CC20C8D8AFC}"/>
+    <hyperlink ref="B19" r:id="rId18" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/species_diversity_3nm_gl2016.csv" xr:uid="{6B7C91B3-ADF0-6641-8526-8DBE044857C8}"/>
+    <hyperlink ref="B20" r:id="rId19" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/NA" xr:uid="{97D82A87-4333-5745-9D05-2039C2A2DEA7}"/>
+    <hyperlink ref="B21" r:id="rId20" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/watershed_partnerships.csv" xr:uid="{9733F5A1-E18D-C34B-8B61-580FE5F1D685}"/>
+    <hyperlink ref="B22" r:id="rId21" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/wgi_all_gl2016.csv" xr:uid="{D9406196-AEAC-574F-BC37-74411C2161E1}"/>
+    <hyperlink ref="B23" r:id="rId22" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/NA" xr:uid="{67C353FA-ACE1-8742-AB52-7341CC1CB8F5}"/>
+    <hyperlink ref="B24" r:id="rId23" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/ao_access_mhi2017.csv" xr:uid="{DCA27D89-2429-6C45-BB22-2D6618FBB712}"/>
+    <hyperlink ref="B25" r:id="rId24" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/ao_resource_mhi2017.csv" xr:uid="{D46C5EA9-AA42-934F-8E5B-C2ADBBF7095B}"/>
+    <hyperlink ref="B26" r:id="rId25" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/r_participation_mhi2017.csv" xr:uid="{418B842C-4CA5-7C45-8469-CD9F20A491ED}"/>
+    <hyperlink ref="B27" r:id="rId26" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/cp_hab_condition_mhi2017.csv" xr:uid="{D6F1CDAF-86BC-B746-90F3-62A6E391028E}"/>
+    <hyperlink ref="B28" r:id="rId27" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/cp_hab_condition_mhi2017.csv" xr:uid="{27D32A77-DF05-6B4A-9823-46F3F15EDDB9}"/>
+    <hyperlink ref="B29" r:id="rId28" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/cp_hab_condition_mhi2017.csv" xr:uid="{E08EDDF8-FBC7-8744-8584-BA8D49BCDC28}"/>
+    <hyperlink ref="B30" r:id="rId29" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/cp_hab_extent_mhi2017.csv" xr:uid="{38D78401-D44D-774E-8FC0-5CE0BE871D97}"/>
+    <hyperlink ref="B31" r:id="rId30" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/cp_hab_extent_mhi2017.csv" xr:uid="{238E698C-D07A-2A42-B4BC-DC92ED02C16D}"/>
+    <hyperlink ref="B32" r:id="rId31" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/cp_hab_extent_mhi2017.csv" xr:uid="{B831F889-7374-A244-8AC1-C3598F724A8E}"/>
+    <hyperlink ref="B33" r:id="rId32" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/NA" xr:uid="{24696478-E3BA-5C4F-BBDB-C78E035866ED}"/>
+    <hyperlink ref="B34" r:id="rId33" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fis_coast_pelagic_updated_mhi2017.csv" xr:uid="{94975A00-7875-3446-BCAC-C40C7899E5D6}"/>
+    <hyperlink ref="B35" r:id="rId34" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fis_deep_catch_mhi2017.csv" xr:uid="{7C3386B7-90E8-7749-B6BC-7D241603B361}"/>
+    <hyperlink ref="B36" r:id="rId35" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fis_pelagic_catch_mhi2017.csv" xr:uid="{503668B7-D7FF-3146-8060-0DA5F887C6CA}"/>
+    <hyperlink ref="B37" r:id="rId36" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fis_reef_catch_mhi2017.csv" xr:uid="{A142271D-873E-8641-94AB-06D7B43440BA}"/>
+    <hyperlink ref="B38" r:id="rId37" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fis_reef_catch_multiplier_mhi2017.csv" xr:uid="{E3E1726E-5AC2-2F4C-B2FE-019D9E8BC404}"/>
+    <hyperlink ref="B39" r:id="rId38" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fis_sus_updated_mhi2017.csv" xr:uid="{5B8F7BF1-0756-1345-B2B2-6FE6F42CBD22}"/>
+    <hyperlink ref="B40" r:id="rId39" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fis_sus_updated_mhi2017.csv" xr:uid="{151B22CC-5BD8-DB40-B719-688BD01B25DA}"/>
+    <hyperlink ref="B41" r:id="rId40" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fis_sus_updated_mhi2017.csv" xr:uid="{13D75D86-9480-5349-AEE9-399BAB7FE0EB}"/>
+    <hyperlink ref="B42" r:id="rId41" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/NA" xr:uid="{DCA7A596-F9D6-FE49-886E-5633BB335048}"/>
+    <hyperlink ref="B43" r:id="rId42" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hab_extent_mhi2017.csv" xr:uid="{49C77FBF-320C-FA45-9026-E1E6322BC2CA}"/>
+    <hyperlink ref="B44" r:id="rId43" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hab_extent_mhi2017.csv" xr:uid="{D9B21338-5EE5-2A49-88F0-972290ACFAD5}"/>
+    <hyperlink ref="B45" r:id="rId44" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hab_extent_mhi2017.csv" xr:uid="{30E00E5E-E6D7-384C-95A5-58DEB66EC5B1}"/>
+    <hyperlink ref="B46" r:id="rId45" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hab_extent_mhi2017.csv" xr:uid="{0831EFE6-AA76-5948-92CC-C2935619078E}"/>
+    <hyperlink ref="B47" r:id="rId46" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hab_extent_mhi2017.csv" xr:uid="{A0466CA2-E792-0B4F-BF4E-C68DACB124CD}"/>
+    <hyperlink ref="B48" r:id="rId47" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hab_health_mhi2017.csv" xr:uid="{81328AF4-9F17-1C4B-A81F-19A15CE14E4E}"/>
+    <hyperlink ref="B49" r:id="rId48" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hab_health_mhi2017.csv" xr:uid="{72DBF1E0-916B-744E-B6C2-196E8F048E7B}"/>
+    <hyperlink ref="B50" r:id="rId49" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hab_health_mhi2017.csv" xr:uid="{7212661F-63D0-A441-B7AA-45F06CD5C810}"/>
+    <hyperlink ref="B51" r:id="rId50" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hab_trend_mhi2017.csv" xr:uid="{03C398D7-1C96-9D4D-88D0-03E206D4F24B}"/>
+    <hyperlink ref="B52" r:id="rId51" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hab_trend_mhi2017.csv" xr:uid="{86D21205-7ED5-A140-ACD1-7671BE68A8F7}"/>
+    <hyperlink ref="B53" r:id="rId52" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hab_trend_mhi2017.csv" xr:uid="{48DDA12E-1AE4-854F-8775-AB5F1BD9369E}"/>
+    <hyperlink ref="B54" r:id="rId53" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hab_trend_mhi2017.csv" xr:uid="{F8FFCD2A-8881-CB4C-B7F7-07830CF46B52}"/>
+    <hyperlink ref="B55" r:id="rId54" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/le_gdp_mhi2017.csv" xr:uid="{1AB1123C-E497-5249-8FB0-B95A732C9F33}"/>
+    <hyperlink ref="B56" r:id="rId55" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/le_jobs_mhi2017.csv" xr:uid="{A97FCCA6-91C8-EA41-89FA-3B680132E6BF}"/>
+    <hyperlink ref="B57" r:id="rId56" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/le_pop_mhi2017.csv" xr:uid="{93AFF0BC-D763-DE4B-B557-23BEAD284D4B}"/>
+    <hyperlink ref="B58" r:id="rId57" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/le_unemployment_mhi2017.csv" xr:uid="{AE2C54E0-EB65-074C-B226-676AB1D99981}"/>
+    <hyperlink ref="B59" r:id="rId58" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/le_wages_mhi2017.csv" xr:uid="{353D489C-122A-594B-81B0-C54BE7652686}"/>
+    <hyperlink ref="B60" r:id="rId59" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/le_wkforce_mhi2017.csv" xr:uid="{2345530C-224E-3F43-A105-7359114127DF}"/>
+    <hyperlink ref="B61" r:id="rId60" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/liv_a_wage_mhi2017.csv" xr:uid="{52EF2DBD-7873-D74C-B5BE-881CD0CEA528}"/>
+    <hyperlink ref="B62" r:id="rId61" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/lsp_area_1km_coast_mhi2017.csv" xr:uid="{E6E1882F-A55B-0944-BF6D-206A7AEF1F3C}"/>
+    <hyperlink ref="B63" r:id="rId62" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/lsp_area_3nm_mhi2017.csv" xr:uid="{ADE4D48A-B629-2641-88BE-D8424CB8486A}"/>
+    <hyperlink ref="B64" r:id="rId63" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/lsp_coastal_conservation_mhi2017.csv" xr:uid="{BD96DD7F-23CA-7045-AE22-96FA45B71E29}"/>
+    <hyperlink ref="B65" r:id="rId64" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/lsp_mma_mhi2017.csv" xr:uid="{73C59D63-3376-7A48-A456-F6F54174F987}"/>
+    <hyperlink ref="B66" r:id="rId65" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/mar_fishpond_current_mhi2017.csv" xr:uid="{0A84CAAC-FEE8-2844-AEB9-DF8EDF01F813}"/>
+    <hyperlink ref="B67" r:id="rId66" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/mar_fishpond_health_mhi2017.csv" xr:uid="{D923C8BE-A536-F749-BDCA-66F6195417C8}"/>
+    <hyperlink ref="B68" r:id="rId67" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/mar_fishpond_numbers_mhi2017.csv" xr:uid="{904DD187-9561-214D-BC7C-5FDA0A9A2903}"/>
+    <hyperlink ref="B69" r:id="rId68" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/mar_harvest_mhi2017.csv" xr:uid="{4149952B-13E4-7041-88A7-C9F1ACBE3EE6}"/>
+    <hyperlink ref="B70" r:id="rId69" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/mar_operations_census_mhi2017.csv" xr:uid="{64ED159D-E4D2-6D48-807C-7D26922BAC7B}"/>
+    <hyperlink ref="B71" r:id="rId70" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/cc_sealevel_mhi2017.csv" xr:uid="{969F52FB-5E61-8A41-8504-FB986C421B2B}"/>
+    <hyperlink ref="B72" r:id="rId71" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/cc_slr_eco_mhi2017.csv" xr:uid="{C97EFB42-F0A3-8543-941F-29799A89B0BE}"/>
+    <hyperlink ref="B73" r:id="rId72" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/cc_warm_mhi2017.csv" xr:uid="{708E4590-304E-6348-829A-72BE8ECD4149}"/>
+    <hyperlink ref="B74" r:id="rId73" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/forest_health_mhi2017.csv" xr:uid="{89F1FBFD-FA88-D845-8A6D-3B10C9BECB56}"/>
+    <hyperlink ref="B75" r:id="rId74" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fp_aquarium_mhi2017.csv" xr:uid="{833E066E-931F-7244-AEA7-C69496A27A4A}"/>
+    <hyperlink ref="B76" r:id="rId75" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fp_reeffish_t_mhi2017.csv" xr:uid="{8A63DCA7-3CD5-A848-B01C-4892984BFB9A}"/>
+    <hyperlink ref="B77" r:id="rId76" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hd_benstr_mhi2017.csv" xr:uid="{D0304531-66A0-E94F-A917-4DC0C57A0E3C}"/>
+    <hyperlink ref="B78" r:id="rId77" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hd_coasteng_mhi2017.csv" xr:uid="{6365DA09-3202-7C45-9AF1-65ECF65B411C}"/>
+    <hyperlink ref="B79" r:id="rId78" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hd_dredging_mhi2017.csv" xr:uid="{82F56432-D52A-F842-84B3-32754C9D9B70}"/>
+    <hyperlink ref="B80" r:id="rId79" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hd_shipbased_ground_mhi2017.csv" xr:uid="{BBC39AC0-23C6-764B-9706-BF7949F59898}"/>
+    <hyperlink ref="B81" r:id="rId80" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hd_tourrec_direct_h_mhi2017.csv" xr:uid="{70FE7537-403C-1F40-8353-7AE1E909D20E}"/>
+    <hyperlink ref="B82" r:id="rId81" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/po_lbsp_nosds_bil_mhi2017.csv" xr:uid="{26379842-71ED-1845-B05A-11D0F966698B}"/>
+    <hyperlink ref="B83" r:id="rId82" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/po_lbsp_sed_mhi2017.csv" xr:uid="{0240EDD6-17B5-6D4D-8B46-E52FB08FB471}"/>
+    <hyperlink ref="B84" r:id="rId83" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/po_lbspaggolfrunoff_mhi2017.csv" xr:uid="{C37BEAC4-9771-2946-888A-E9B97A0FC765}"/>
+    <hyperlink ref="B85" r:id="rId84" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/po_lbspurbanrunoff_mhi2017.csv" xr:uid="{3D457E3A-C68B-244D-B989-5D3F7248E0AA}"/>
+    <hyperlink ref="B86" r:id="rId85" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/po_marinedebris_mhi2017.csv" xr:uid="{5CF1CD2F-1A38-5E41-8E9E-2664FBF8C4C2}"/>
+    <hyperlink ref="B87" r:id="rId86" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/po_shipbased_shipp_mhi2017.csv" xr:uid="{9C76019A-54E6-4C4F-80C4-E15B35646CC3}"/>
+    <hyperlink ref="B88" r:id="rId87" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/sp_aquacul_terrest_mhi2017.csv" xr:uid="{37486842-ECB1-544A-84D4-6AC1C9258855}"/>
+    <hyperlink ref="B89" r:id="rId88" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/sp_ispp_a_m_mhi2017.csv" xr:uid="{DA7DC4FA-38C4-7741-ACB0-300D82009D82}"/>
+    <hyperlink ref="B90" r:id="rId89" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/t_boarding_mhi2017.csv" xr:uid="{8BCB0627-1092-3D41-AD81-E7D026163BE4}"/>
+    <hyperlink ref="B91" r:id="rId90" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/t_kayaking_mhi2017.csv" xr:uid="{6E78685D-625E-4E43-826D-444A41A68188}"/>
+    <hyperlink ref="B92" r:id="rId91" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/t_snorkel_scuba_mhi2017.csv" xr:uid="{9BBE303A-69CF-2F4B-AC9F-6A99627B42E1}"/>
+    <hyperlink ref="B93" r:id="rId92" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/t_swimming_mhi2017.csv" xr:uid="{D22292DB-624F-2B48-B2D6-3896BBBBCF95}"/>
+    <hyperlink ref="B94" r:id="rId93" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/t_thrill_craft_mhi2017.csv" xr:uid="{0899F71B-2E38-274B-80D1-69C91CD72FAB}"/>
+    <hyperlink ref="B95" r:id="rId94" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/t_whale_watching_mhi2017.csv" xr:uid="{F41199E1-EF9E-6749-B546-135620D8027E}"/>
+    <hyperlink ref="B96" r:id="rId95" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/community_stewardship_mhi2017.csv" xr:uid="{BFD9950E-3707-3349-B652-7C44806CAB79}"/>
+    <hyperlink ref="B97" r:id="rId96" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fp_MPA_3nm_mhi2017.csv" xr:uid="{BE867D9C-0F04-FC40-9B2E-F70EA060A27D}"/>
+    <hyperlink ref="B98" r:id="rId97" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/fp_MPA_eez_mhi2017.csv" xr:uid="{A14A5238-2F67-5F4A-A140-59BC2E223A06}"/>
+    <hyperlink ref="B99" r:id="rId98" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hd_MPA_3nm_mhi2017.csv" xr:uid="{12626CBC-4973-104C-B794-AF102618B8BA}"/>
+    <hyperlink ref="B100" r:id="rId99" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hd_MPA_eez_mhi2017.csv" xr:uid="{2C568300-F1F9-234F-8C0D-D6A029750213}"/>
+    <hyperlink ref="B101" r:id="rId100" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/hd_watersheds_mhi2017.csv" xr:uid="{954BB764-B9FD-EE45-BE04-CCA8F0CD04FD}"/>
+    <hyperlink ref="B102" r:id="rId101" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/li_economic_index.csv" xr:uid="{E070DA6B-A854-BE4F-8545-3D55BB547992}"/>
+    <hyperlink ref="B103" r:id="rId102" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/res_hab_health_mhi2017.csv" xr:uid="{C2E1FD99-0477-A445-B5FF-805E48F13D6A}"/>
+    <hyperlink ref="B104" r:id="rId103" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/sp_OHA_culture.csv" xr:uid="{BEFB2CA8-ADC2-B043-87A2-47B4CB408CB9}"/>
+    <hyperlink ref="B105" r:id="rId104" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/tourism_experience_mhi2017.csv" xr:uid="{C0241C58-57A4-094A-95D4-87330C58BB97}"/>
+    <hyperlink ref="B106" r:id="rId105" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/NA" xr:uid="{D68998C9-3DF0-DC4D-BD51-79BC89BB7E09}"/>
+    <hyperlink ref="B107" r:id="rId106" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/NA" xr:uid="{3ECA0F5D-6B56-3345-B23E-A721C8D91FD0}"/>
+    <hyperlink ref="B108" r:id="rId107" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/NA" xr:uid="{88680221-3B5C-6648-A7BE-B4593163F55F}"/>
+    <hyperlink ref="B109" r:id="rId108" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/spp_fish_mhi2017.csv" xr:uid="{D9996BD8-A98D-8245-A482-93E93A33D25D}"/>
+    <hyperlink ref="B110" r:id="rId109" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/spp_status_mhi_mhi2017.csv" xr:uid="{33B0428B-552D-6948-94A0-3955DD006A93}"/>
+    <hyperlink ref="B111" r:id="rId110" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/spp_status_mhi_mhi2017.csv" xr:uid="{5B5AD8EF-A253-8A45-8D69-1CE649910BEC}"/>
+    <hyperlink ref="B112" r:id="rId111" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/spp_status_mhi_mhi2017.csv" xr:uid="{579BDECF-3941-7242-A2B2-B23A7F440416}"/>
+    <hyperlink ref="B113" r:id="rId112" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/t_env_sus_mhi2017.csv" xr:uid="{91104933-8716-D341-8631-215E5492491B}"/>
+    <hyperlink ref="B114" r:id="rId113" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/t_growth_mhi2017.csv" xr:uid="{F7B80701-5ED2-3546-A4B2-0DEA27BA7D56}"/>
+    <hyperlink ref="B115" r:id="rId114" display="https://github.com/OHI-Science/mhi/blob/master/region2017/layers/t_sentiment_mhi2017.csv" xr:uid="{7754A9B1-11D0-F14E-879F-2271B1F8CB10}"/>
+    <hyperlink ref="B118" r:id="rId115" display="https://doi.org/10.7289/V5T151M8" xr:uid="{12853BFE-70EC-B243-84B1-0439867EE001}"/>
+    <hyperlink ref="B120" r:id="rId116" display="http://dbedt.hawaii.gov/economic/databook/" xr:uid="{85DF6695-D49B-144B-AAA6-113BD5C899A3}"/>
+    <hyperlink ref="B124" r:id="rId117" display="https://coast.noaa.gov/digitalcoast/tools/enow.html" xr:uid="{126B9150-3C68-0645-A0ED-F60DC1A5CB28}"/>
+    <hyperlink ref="B125" r:id="rId118" display="http://pubs.usgs.gov/of/2011/1051" xr:uid="{EB2ABC67-0B78-D94E-9CE2-6EB21674FCCF}"/>
+    <hyperlink ref="B130" r:id="rId119" display="http://www.hawaiitourismauthority.org/research/reports/annual-visitor-research/" xr:uid="{11BE8D00-A70C-0E4C-B27C-AA42D90F85E4}"/>
+    <hyperlink ref="B132" r:id="rId120" display="http://isc.fra.go.jp/" xr:uid="{A863DA8F-8B6A-EB4E-8437-2EDF5363C68B}"/>
+    <hyperlink ref="B133" r:id="rId121" display="https://doi.org/10.13140/RG.2.2.33194.52162" xr:uid="{6CD34AFD-4057-9246-978E-2175D5AD3923}"/>
+    <hyperlink ref="B137" r:id="rId122" display="https://doi.org/doi:10.7289/V5/TM-PIFSC-60" xr:uid="{004EA808-B1D8-5546-B91F-9F2C1E2915D6}"/>
+    <hyperlink ref="B138" r:id="rId123" display="https://coast.noaa.gov/ccapatlas/" xr:uid="{F7A7BC79-4882-0142-8136-32D21F3FAFE1}"/>
+    <hyperlink ref="B140" r:id="rId124" display="https://www.fisheries.noaa.gov/species-directory" xr:uid="{33B02FBC-C765-D549-A22B-559F53E2CF1F}"/>
+    <hyperlink ref="B141" r:id="rId125" display="https://coralreefwatch.noaa.gov/satellite/bleaching5km/index%7b/_%7d5km%7b/_%7ddhw.php" xr:uid="{BAD2A668-68FD-DB4C-A1A7-1768E11984EC}"/>
+    <hyperlink ref="B142" r:id="rId126" display="https://www.ncdc.noaa.gov/data-access/marineocean-data/extended-reconstructed-sea-surface-temperature-ersst-v4" xr:uid="{0CFA63B6-1D10-E54E-AEC2-1CDAA0E188E4}"/>
+    <hyperlink ref="B143" r:id="rId127" display="https://dashboard.hawaii.gov/oha" xr:uid="{5E138271-922B-A24C-8183-17C4425B2A52}"/>
+    <hyperlink ref="B144" r:id="rId128" display="http://geoportal.hawaii.gov/datasets/marine-managed-areas-dar?geometry=-165.4%7b\%25%7d2C19.079%7b\%25%7d2C-149.745%7b\%25%7d2C22.671" xr:uid="{C358017C-4EA8-1F4A-AD50-4EFF69833B70}"/>
+    <hyperlink ref="B147" r:id="rId129" display="http://www.stateofthebirds.org/2014/watch-list" xr:uid="{0FD6AE29-F927-3540-8DA5-31D0ED2B443A}"/>
+    <hyperlink ref="B148" r:id="rId130" display="http://www2.itif.org/2014-state-new-economy-index.pdf?%7b\_%7dga=2.172874404.647272182.1518556757-1876347143.1503367721" xr:uid="{A212282C-27F2-AC43-B27D-260A969C2B50}"/>
+    <hyperlink ref="B150" r:id="rId131" display="https://ecos.fws.gov/ecp/" xr:uid="{A74139A2-EB6E-6946-BA75-C62702E69A05}"/>
+    <hyperlink ref="B151" r:id="rId132" display="https://quickstats.nass.usda.gov/" xr:uid="{ED5F3A6C-B85B-B045-A0B9-7A923227A6D0}"/>
+    <hyperlink ref="B152" r:id="rId133" display="https://doi.org/10.1007/s13157-013-0501-2" xr:uid="{D908415F-D264-5140-A6EA-1F1114A39B6A}"/>
+    <hyperlink ref="B153" r:id="rId134" display="https://www.wcpfc.int/" xr:uid="{599AC1A4-806C-C84A-A913-34A47CDF79FE}"/>
+    <hyperlink ref="B155" r:id="rId135" display="https://doi.org/10.1371/journal.pone.0120516" xr:uid="{441E111D-3C76-AD43-B4BF-E6B8A5008AE7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>